--- a/geotagged/countries_codes.xlsx
+++ b/geotagged/countries_codes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlottepanuskova/Nextcloud/translation-mapping/geotagged/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9161D50-45F7-1D41-A5DB-FB2EE521ED18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EED29C66-22D7-9448-AC42-E3891A971E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17140" xr2:uid="{0450E77F-BC49-3345-83FA-02D7589DACBD}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17080" xr2:uid="{0450E77F-BC49-3345-83FA-02D7589DACBD}"/>
   </bookViews>
   <sheets>
     <sheet name="countries_codes" sheetId="2" r:id="rId1"/>
@@ -6338,9 +6338,6 @@
     <t>380</t>
   </si>
   <si>
-    <t>uk,ru-UA,rom,pl,hu</t>
-  </si>
-  <si>
     <t>PL,MD,HU,SK,BY,RO,RU</t>
   </si>
   <si>
@@ -6900,6 +6897,9 @@
   </si>
   <si>
     <t>rn, fr-BI</t>
+  </si>
+  <si>
+    <t>uk,rom,pl,hu</t>
   </si>
 </sst>
 </file>
@@ -7033,7 +7033,7 @@
   <autoFilter ref="A1:S250" xr:uid="{FF718C5C-D6A5-4A4C-9841-7E1CF9741D61}">
     <filterColumn colId="4">
       <filters>
-        <filter val="Burundi"/>
+        <filter val="Ukraine"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -7365,7 +7365,7 @@
   <dimension ref="A1:S250"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="P255" sqref="P255"/>
+      <selection activeCell="P241" sqref="P241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8617,7 +8617,7 @@
         <v>33</v>
       </c>
       <c r="P21" t="s">
-        <v>2273</v>
+        <v>2272</v>
       </c>
       <c r="Q21">
         <v>2434508</v>
@@ -8690,22 +8690,22 @@
     </row>
     <row r="23" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B23" t="s">
         <v>2215</v>
-      </c>
-      <c r="B23" t="s">
-        <v>2216</v>
       </c>
       <c r="C23">
         <v>887</v>
       </c>
       <c r="D23" t="s">
+        <v>2216</v>
+      </c>
+      <c r="E23" t="s">
         <v>2217</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>2218</v>
-      </c>
-      <c r="F23" t="s">
-        <v>2219</v>
       </c>
       <c r="G23">
         <v>527970</v>
@@ -8717,25 +8717,25 @@
         <v>38</v>
       </c>
       <c r="J23" t="s">
+        <v>2219</v>
+      </c>
+      <c r="K23" t="s">
         <v>2220</v>
-      </c>
-      <c r="K23" t="s">
-        <v>2221</v>
       </c>
       <c r="L23" t="s">
         <v>999</v>
       </c>
       <c r="M23" t="s">
+        <v>2221</v>
+      </c>
+      <c r="N23" t="s">
+        <v>33</v>
+      </c>
+      <c r="O23" t="s">
+        <v>33</v>
+      </c>
+      <c r="P23" t="s">
         <v>2222</v>
-      </c>
-      <c r="N23" t="s">
-        <v>33</v>
-      </c>
-      <c r="O23" t="s">
-        <v>33</v>
-      </c>
-      <c r="P23" t="s">
-        <v>2223</v>
       </c>
       <c r="Q23">
         <v>69543</v>
@@ -8912,7 +8912,7 @@
         <v>33</v>
       </c>
       <c r="P26" t="s">
-        <v>2275</v>
+        <v>2274</v>
       </c>
       <c r="Q26">
         <v>223816</v>
@@ -9103,22 +9103,22 @@
     </row>
     <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>2187</v>
+      </c>
+      <c r="B30" t="s">
         <v>2188</v>
-      </c>
-      <c r="B30" t="s">
-        <v>2189</v>
       </c>
       <c r="C30">
         <v>548</v>
       </c>
       <c r="D30" t="s">
+        <v>2189</v>
+      </c>
+      <c r="E30" t="s">
         <v>2190</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>2191</v>
-      </c>
-      <c r="F30" t="s">
-        <v>2192</v>
       </c>
       <c r="G30">
         <v>12200</v>
@@ -9130,25 +9130,25 @@
         <v>125</v>
       </c>
       <c r="J30" t="s">
+        <v>2192</v>
+      </c>
+      <c r="K30" t="s">
         <v>2193</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>2194</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>2195</v>
       </c>
-      <c r="M30" t="s">
+      <c r="N30" t="s">
+        <v>33</v>
+      </c>
+      <c r="O30" t="s">
+        <v>33</v>
+      </c>
+      <c r="P30" t="s">
         <v>2196</v>
-      </c>
-      <c r="N30" t="s">
-        <v>33</v>
-      </c>
-      <c r="O30" t="s">
-        <v>33</v>
-      </c>
-      <c r="P30" t="s">
-        <v>2197</v>
       </c>
       <c r="Q30">
         <v>2134431</v>
@@ -9460,16 +9460,16 @@
         <v>486</v>
       </c>
       <c r="B36" t="s">
-        <v>2258</v>
+        <v>2257</v>
       </c>
       <c r="C36">
         <v>891</v>
       </c>
       <c r="D36" t="s">
+        <v>2258</v>
+      </c>
+      <c r="E36" t="s">
         <v>2259</v>
-      </c>
-      <c r="E36" t="s">
-        <v>2260</v>
       </c>
       <c r="F36" t="s">
         <v>1742</v>
@@ -9484,7 +9484,7 @@
         <v>24</v>
       </c>
       <c r="J36" t="s">
-        <v>2261</v>
+        <v>2260</v>
       </c>
       <c r="K36" t="s">
         <v>1744</v>
@@ -9502,13 +9502,13 @@
         <v>190</v>
       </c>
       <c r="P36" t="s">
-        <v>2262</v>
+        <v>2261</v>
       </c>
       <c r="Q36">
         <v>8505033</v>
       </c>
       <c r="R36" t="s">
-        <v>2263</v>
+        <v>2262</v>
       </c>
       <c r="S36" t="s">
         <v>33</v>
@@ -10623,7 +10623,7 @@
         <v>33</v>
       </c>
       <c r="P55" t="s">
-        <v>2282</v>
+        <v>2281</v>
       </c>
       <c r="Q55">
         <v>933860</v>
@@ -12039,7 +12039,7 @@
         <v>1013</v>
       </c>
       <c r="P79" t="s">
-        <v>2277</v>
+        <v>2276</v>
       </c>
       <c r="Q79">
         <v>932692</v>
@@ -12806,7 +12806,7 @@
         <v>1949</v>
       </c>
       <c r="P92" t="s">
-        <v>2278</v>
+        <v>2277</v>
       </c>
       <c r="Q92">
         <v>934841</v>
@@ -12938,10 +12938,10 @@
     </row>
     <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
+        <v>2105</v>
+      </c>
+      <c r="B95" t="s">
         <v>2106</v>
-      </c>
-      <c r="B95" t="s">
-        <v>2107</v>
       </c>
       <c r="C95">
         <v>581</v>
@@ -12950,7 +12950,7 @@
         <v>33</v>
       </c>
       <c r="E95" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="F95" t="s">
         <v>33</v>
@@ -12965,7 +12965,7 @@
         <v>125</v>
       </c>
       <c r="J95" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="K95" t="s">
         <v>127</v>
@@ -12983,7 +12983,7 @@
         <v>33</v>
       </c>
       <c r="P95" t="s">
-        <v>2110</v>
+        <v>2109</v>
       </c>
       <c r="Q95">
         <v>5854968</v>
@@ -13000,7 +13000,7 @@
         <v>385</v>
       </c>
       <c r="B96" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="C96">
         <v>840</v>
@@ -13009,10 +13009,10 @@
         <v>385</v>
       </c>
       <c r="E96" t="s">
+        <v>2111</v>
+      </c>
+      <c r="F96" t="s">
         <v>2112</v>
-      </c>
-      <c r="F96" t="s">
-        <v>2113</v>
       </c>
       <c r="G96">
         <v>9629091</v>
@@ -13024,7 +13024,7 @@
         <v>60</v>
       </c>
       <c r="J96" t="s">
-        <v>2114</v>
+        <v>2113</v>
       </c>
       <c r="K96" t="s">
         <v>127</v>
@@ -13039,16 +13039,16 @@
         <v>129</v>
       </c>
       <c r="O96" t="s">
+        <v>2114</v>
+      </c>
+      <c r="P96" t="s">
         <v>2115</v>
-      </c>
-      <c r="P96" t="s">
-        <v>2116</v>
       </c>
       <c r="Q96">
         <v>6252001</v>
       </c>
       <c r="R96" t="s">
-        <v>2117</v>
+        <v>2116</v>
       </c>
       <c r="S96" t="s">
         <v>33</v>
@@ -13056,22 +13056,22 @@
     </row>
     <row r="97" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
+        <v>2143</v>
+      </c>
+      <c r="B97" t="s">
         <v>2144</v>
-      </c>
-      <c r="B97" t="s">
-        <v>2145</v>
       </c>
       <c r="C97">
         <v>670</v>
       </c>
       <c r="D97" t="s">
-        <v>2144</v>
+        <v>2143</v>
       </c>
       <c r="E97" t="s">
+        <v>2145</v>
+      </c>
+      <c r="F97" t="s">
         <v>2146</v>
-      </c>
-      <c r="F97" t="s">
-        <v>2147</v>
       </c>
       <c r="G97">
         <v>389</v>
@@ -13083,7 +13083,7 @@
         <v>60</v>
       </c>
       <c r="J97" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="K97" t="s">
         <v>62</v>
@@ -13092,16 +13092,16 @@
         <v>63</v>
       </c>
       <c r="M97" t="s">
+        <v>2148</v>
+      </c>
+      <c r="N97" t="s">
+        <v>33</v>
+      </c>
+      <c r="O97" t="s">
+        <v>33</v>
+      </c>
+      <c r="P97" t="s">
         <v>2149</v>
-      </c>
-      <c r="N97" t="s">
-        <v>33</v>
-      </c>
-      <c r="O97" t="s">
-        <v>33</v>
-      </c>
-      <c r="P97" t="s">
-        <v>2150</v>
       </c>
       <c r="Q97">
         <v>3577815</v>
@@ -13115,22 +13115,22 @@
     </row>
     <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
+        <v>2160</v>
+      </c>
+      <c r="B98" t="s">
         <v>2161</v>
-      </c>
-      <c r="B98" t="s">
-        <v>2162</v>
       </c>
       <c r="C98">
         <v>92</v>
       </c>
       <c r="D98" t="s">
+        <v>2162</v>
+      </c>
+      <c r="E98" t="s">
         <v>2163</v>
       </c>
-      <c r="E98" t="s">
+      <c r="F98" t="s">
         <v>2164</v>
-      </c>
-      <c r="F98" t="s">
-        <v>2165</v>
       </c>
       <c r="G98">
         <v>153</v>
@@ -13142,7 +13142,7 @@
         <v>60</v>
       </c>
       <c r="J98" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="K98" t="s">
         <v>127</v>
@@ -13151,16 +13151,16 @@
         <v>63</v>
       </c>
       <c r="M98" t="s">
+        <v>2166</v>
+      </c>
+      <c r="N98" t="s">
+        <v>33</v>
+      </c>
+      <c r="O98" t="s">
+        <v>33</v>
+      </c>
+      <c r="P98" t="s">
         <v>2167</v>
-      </c>
-      <c r="N98" t="s">
-        <v>33</v>
-      </c>
-      <c r="O98" t="s">
-        <v>33</v>
-      </c>
-      <c r="P98" t="s">
-        <v>2168</v>
       </c>
       <c r="Q98">
         <v>3577718</v>
@@ -13174,22 +13174,22 @@
     </row>
     <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="B99" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="C99">
         <v>850</v>
       </c>
       <c r="D99" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E99" t="s">
         <v>2170</v>
       </c>
-      <c r="E99" t="s">
+      <c r="F99" t="s">
         <v>2171</v>
-      </c>
-      <c r="F99" t="s">
-        <v>2172</v>
       </c>
       <c r="G99">
         <v>352</v>
@@ -13201,7 +13201,7 @@
         <v>60</v>
       </c>
       <c r="J99" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="K99" t="s">
         <v>127</v>
@@ -13210,16 +13210,16 @@
         <v>63</v>
       </c>
       <c r="M99" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="N99" t="s">
         <v>129</v>
       </c>
       <c r="O99" t="s">
+        <v>2174</v>
+      </c>
+      <c r="P99" t="s">
         <v>2175</v>
-      </c>
-      <c r="P99" t="s">
-        <v>2176</v>
       </c>
       <c r="Q99">
         <v>4796775</v>
@@ -13233,10 +13233,10 @@
     </row>
     <row r="100" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
+        <v>2239</v>
+      </c>
+      <c r="B100" t="s">
         <v>2240</v>
-      </c>
-      <c r="B100" t="s">
-        <v>2241</v>
       </c>
       <c r="C100">
         <v>894</v>
@@ -13245,10 +13245,10 @@
         <v>1233</v>
       </c>
       <c r="E100" t="s">
+        <v>2241</v>
+      </c>
+      <c r="F100" t="s">
         <v>2242</v>
-      </c>
-      <c r="F100" t="s">
-        <v>2243</v>
       </c>
       <c r="G100">
         <v>752614</v>
@@ -13260,16 +13260,16 @@
         <v>45</v>
       </c>
       <c r="J100" t="s">
+        <v>2243</v>
+      </c>
+      <c r="K100" t="s">
         <v>2244</v>
-      </c>
-      <c r="K100" t="s">
-        <v>2245</v>
       </c>
       <c r="L100" t="s">
         <v>1441</v>
       </c>
       <c r="M100" t="s">
-        <v>2246</v>
+        <v>2245</v>
       </c>
       <c r="N100" t="s">
         <v>164</v>
@@ -13278,13 +13278,13 @@
         <v>190</v>
       </c>
       <c r="P100" t="s">
-        <v>2247</v>
+        <v>2246</v>
       </c>
       <c r="Q100">
         <v>895949</v>
       </c>
       <c r="R100" t="s">
-        <v>2248</v>
+        <v>2247</v>
       </c>
       <c r="S100" t="s">
         <v>33</v>
@@ -13292,22 +13292,22 @@
     </row>
     <row r="101" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
+        <v>2248</v>
+      </c>
+      <c r="B101" t="s">
         <v>2249</v>
-      </c>
-      <c r="B101" t="s">
-        <v>2250</v>
       </c>
       <c r="C101">
         <v>716</v>
       </c>
       <c r="D101" t="s">
+        <v>2250</v>
+      </c>
+      <c r="E101" t="s">
         <v>2251</v>
       </c>
-      <c r="E101" t="s">
+      <c r="F101" t="s">
         <v>2252</v>
-      </c>
-      <c r="F101" t="s">
-        <v>2253</v>
       </c>
       <c r="G101">
         <v>390580</v>
@@ -13319,16 +13319,16 @@
         <v>45</v>
       </c>
       <c r="J101" t="s">
+        <v>2253</v>
+      </c>
+      <c r="K101" t="s">
         <v>2254</v>
-      </c>
-      <c r="K101" t="s">
-        <v>2255</v>
       </c>
       <c r="L101" t="s">
         <v>63</v>
       </c>
       <c r="M101" t="s">
-        <v>2256</v>
+        <v>2255</v>
       </c>
       <c r="N101" t="s">
         <v>33</v>
@@ -13337,13 +13337,13 @@
         <v>33</v>
       </c>
       <c r="P101" t="s">
-        <v>2279</v>
+        <v>2278</v>
       </c>
       <c r="Q101">
         <v>878675</v>
       </c>
       <c r="R101" t="s">
-        <v>2257</v>
+        <v>2256</v>
       </c>
       <c r="S101" t="s">
         <v>33</v>
@@ -14649,22 +14649,22 @@
     </row>
     <row r="124" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
+        <v>2117</v>
+      </c>
+      <c r="B124" t="s">
         <v>2118</v>
-      </c>
-      <c r="B124" t="s">
-        <v>2119</v>
       </c>
       <c r="C124">
         <v>858</v>
       </c>
       <c r="D124" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="E124" t="s">
+        <v>2119</v>
+      </c>
+      <c r="F124" t="s">
         <v>2120</v>
-      </c>
-      <c r="F124" t="s">
-        <v>2121</v>
       </c>
       <c r="G124">
         <v>176220</v>
@@ -14676,16 +14676,16 @@
         <v>113</v>
       </c>
       <c r="J124" t="s">
+        <v>2121</v>
+      </c>
+      <c r="K124" t="s">
         <v>2122</v>
-      </c>
-      <c r="K124" t="s">
-        <v>2123</v>
       </c>
       <c r="L124" t="s">
         <v>116</v>
       </c>
       <c r="M124" t="s">
-        <v>2124</v>
+        <v>2123</v>
       </c>
       <c r="N124" t="s">
         <v>164</v>
@@ -14694,13 +14694,13 @@
         <v>190</v>
       </c>
       <c r="P124" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="Q124">
         <v>3439705</v>
       </c>
       <c r="R124" t="s">
-        <v>2126</v>
+        <v>2125</v>
       </c>
       <c r="S124" t="s">
         <v>33</v>
@@ -14708,22 +14708,22 @@
     </row>
     <row r="125" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
+        <v>2150</v>
+      </c>
+      <c r="B125" t="s">
         <v>2151</v>
-      </c>
-      <c r="B125" t="s">
-        <v>2152</v>
       </c>
       <c r="C125">
         <v>862</v>
       </c>
       <c r="D125" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="E125" t="s">
+        <v>2152</v>
+      </c>
+      <c r="F125" t="s">
         <v>2153</v>
-      </c>
-      <c r="F125" t="s">
-        <v>2154</v>
       </c>
       <c r="G125">
         <v>912050</v>
@@ -14735,16 +14735,16 @@
         <v>113</v>
       </c>
       <c r="J125" t="s">
+        <v>2154</v>
+      </c>
+      <c r="K125" t="s">
         <v>2155</v>
       </c>
-      <c r="K125" t="s">
+      <c r="L125" t="s">
         <v>2156</v>
       </c>
-      <c r="L125" t="s">
+      <c r="M125" t="s">
         <v>2157</v>
-      </c>
-      <c r="M125" t="s">
-        <v>2158</v>
       </c>
       <c r="N125" t="s">
         <v>82</v>
@@ -14753,13 +14753,13 @@
         <v>83</v>
       </c>
       <c r="P125" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="Q125">
         <v>3625428</v>
       </c>
       <c r="R125" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="S125" t="s">
         <v>33</v>
@@ -15343,7 +15343,7 @@
         <v>33</v>
       </c>
       <c r="P135" t="s">
-        <v>2280</v>
+        <v>2279</v>
       </c>
       <c r="Q135">
         <v>2361809</v>
@@ -15355,7 +15355,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>253</v>
       </c>
@@ -15402,7 +15402,7 @@
         <v>33</v>
       </c>
       <c r="P136" t="s">
-        <v>2283</v>
+        <v>2282</v>
       </c>
       <c r="Q136">
         <v>433561</v>
@@ -16110,7 +16110,7 @@
         <v>33</v>
       </c>
       <c r="P148" t="s">
-        <v>2281</v>
+        <v>2280</v>
       </c>
       <c r="Q148">
         <v>2453866</v>
@@ -16596,10 +16596,10 @@
     </row>
     <row r="157" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
+        <v>2223</v>
+      </c>
+      <c r="B157" t="s">
         <v>2224</v>
-      </c>
-      <c r="B157" t="s">
-        <v>2225</v>
       </c>
       <c r="C157">
         <v>175</v>
@@ -16608,10 +16608,10 @@
         <v>1309</v>
       </c>
       <c r="E157" t="s">
+        <v>2225</v>
+      </c>
+      <c r="F157" t="s">
         <v>2226</v>
-      </c>
-      <c r="F157" t="s">
-        <v>2227</v>
       </c>
       <c r="G157">
         <v>374</v>
@@ -16623,7 +16623,7 @@
         <v>45</v>
       </c>
       <c r="J157" t="s">
-        <v>2228</v>
+        <v>2227</v>
       </c>
       <c r="K157" t="s">
         <v>26</v>
@@ -16641,7 +16641,7 @@
         <v>190</v>
       </c>
       <c r="P157" t="s">
-        <v>2229</v>
+        <v>2228</v>
       </c>
       <c r="Q157">
         <v>1024031</v>
@@ -16759,7 +16759,7 @@
         <v>95</v>
       </c>
       <c r="P159" t="s">
-        <v>2270</v>
+        <v>2269</v>
       </c>
       <c r="Q159">
         <v>1269750</v>
@@ -16818,7 +16818,7 @@
         <v>1013</v>
       </c>
       <c r="P160" t="s">
-        <v>2271</v>
+        <v>2270</v>
       </c>
       <c r="Q160">
         <v>2088628</v>
@@ -17776,22 +17776,22 @@
     </row>
     <row r="177" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
+        <v>2135</v>
+      </c>
+      <c r="B177" t="s">
         <v>2136</v>
-      </c>
-      <c r="B177" t="s">
-        <v>2137</v>
       </c>
       <c r="C177">
         <v>336</v>
       </c>
       <c r="D177" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E177" t="s">
         <v>2138</v>
       </c>
-      <c r="E177" t="s">
+      <c r="F177" t="s">
         <v>2139</v>
-      </c>
-      <c r="F177" t="s">
-        <v>2140</v>
       </c>
       <c r="G177">
         <v>0.44</v>
@@ -17803,7 +17803,7 @@
         <v>24</v>
       </c>
       <c r="J177" t="s">
-        <v>2141</v>
+        <v>2140</v>
       </c>
       <c r="K177" t="s">
         <v>26</v>
@@ -17812,7 +17812,7 @@
         <v>27</v>
       </c>
       <c r="M177" t="s">
-        <v>2142</v>
+        <v>2141</v>
       </c>
       <c r="N177" t="s">
         <v>164</v>
@@ -17821,7 +17821,7 @@
         <v>190</v>
       </c>
       <c r="P177" t="s">
-        <v>2143</v>
+        <v>2142</v>
       </c>
       <c r="Q177">
         <v>3164670</v>
@@ -17894,22 +17894,22 @@
     </row>
     <row r="179" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
+        <v>2097</v>
+      </c>
+      <c r="B179" t="s">
         <v>2098</v>
-      </c>
-      <c r="B179" t="s">
-        <v>2099</v>
       </c>
       <c r="C179">
         <v>800</v>
       </c>
       <c r="D179" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="E179" t="s">
+        <v>2099</v>
+      </c>
+      <c r="F179" t="s">
         <v>2100</v>
-      </c>
-      <c r="F179" t="s">
-        <v>2101</v>
       </c>
       <c r="G179">
         <v>236040</v>
@@ -17921,16 +17921,16 @@
         <v>45</v>
       </c>
       <c r="J179" t="s">
+        <v>2101</v>
+      </c>
+      <c r="K179" t="s">
         <v>2102</v>
-      </c>
-      <c r="K179" t="s">
-        <v>2103</v>
       </c>
       <c r="L179" t="s">
         <v>1065</v>
       </c>
       <c r="M179" t="s">
-        <v>2104</v>
+        <v>2103</v>
       </c>
       <c r="N179" t="s">
         <v>33</v>
@@ -17939,13 +17939,13 @@
         <v>33</v>
       </c>
       <c r="P179" t="s">
-        <v>2276</v>
+        <v>2275</v>
       </c>
       <c r="Q179">
         <v>226074</v>
       </c>
       <c r="R179" t="s">
-        <v>2105</v>
+        <v>2104</v>
       </c>
       <c r="S179" t="s">
         <v>33</v>
@@ -18782,19 +18782,19 @@
         <v>21</v>
       </c>
       <c r="B194" t="s">
-        <v>2264</v>
+        <v>2263</v>
       </c>
       <c r="C194">
         <v>530</v>
       </c>
       <c r="D194" t="s">
+        <v>2264</v>
+      </c>
+      <c r="E194" t="s">
         <v>2265</v>
       </c>
-      <c r="E194" t="s">
+      <c r="F194" t="s">
         <v>2266</v>
-      </c>
-      <c r="F194" t="s">
-        <v>2267</v>
       </c>
       <c r="G194">
         <v>960</v>
@@ -18806,7 +18806,7 @@
         <v>60</v>
       </c>
       <c r="J194" t="s">
-        <v>2268</v>
+        <v>2267</v>
       </c>
       <c r="K194" t="s">
         <v>519</v>
@@ -18824,7 +18824,7 @@
         <v>33</v>
       </c>
       <c r="P194" t="s">
-        <v>2269</v>
+        <v>2268</v>
       </c>
       <c r="Q194">
         <v>8505032</v>
@@ -20240,7 +20240,7 @@
         <v>33</v>
       </c>
       <c r="P218" t="s">
-        <v>2274</v>
+        <v>2273</v>
       </c>
       <c r="Q218">
         <v>239880</v>
@@ -20431,22 +20431,22 @@
     </row>
     <row r="222" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
+        <v>2205</v>
+      </c>
+      <c r="B222" t="s">
         <v>2206</v>
-      </c>
-      <c r="B222" t="s">
-        <v>2207</v>
       </c>
       <c r="C222">
         <v>882</v>
       </c>
       <c r="D222" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="E222" t="s">
+        <v>2207</v>
+      </c>
+      <c r="F222" t="s">
         <v>2208</v>
-      </c>
-      <c r="F222" t="s">
-        <v>2209</v>
       </c>
       <c r="G222">
         <v>2944</v>
@@ -20458,25 +20458,25 @@
         <v>125</v>
       </c>
       <c r="J222" t="s">
+        <v>2209</v>
+      </c>
+      <c r="K222" t="s">
         <v>2210</v>
       </c>
-      <c r="K222" t="s">
+      <c r="L222" t="s">
         <v>2211</v>
       </c>
-      <c r="L222" t="s">
+      <c r="M222" t="s">
         <v>2212</v>
       </c>
-      <c r="M222" t="s">
+      <c r="N222" t="s">
+        <v>33</v>
+      </c>
+      <c r="O222" t="s">
+        <v>33</v>
+      </c>
+      <c r="P222" t="s">
         <v>2213</v>
-      </c>
-      <c r="N222" t="s">
-        <v>33</v>
-      </c>
-      <c r="O222" t="s">
-        <v>33</v>
-      </c>
-      <c r="P222" t="s">
-        <v>2214</v>
       </c>
       <c r="Q222">
         <v>4034894</v>
@@ -20948,7 +20948,7 @@
         <v>190</v>
       </c>
       <c r="P230" t="s">
-        <v>2272</v>
+        <v>2271</v>
       </c>
       <c r="Q230">
         <v>192950</v>
@@ -21550,7 +21550,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="241" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>2087</v>
       </c>
@@ -21597,13 +21597,13 @@
         <v>190</v>
       </c>
       <c r="P241" t="s">
-        <v>2096</v>
+        <v>2283</v>
       </c>
       <c r="Q241">
         <v>690791</v>
       </c>
       <c r="R241" t="s">
-        <v>2097</v>
+        <v>2096</v>
       </c>
       <c r="S241" t="s">
         <v>33</v>
@@ -21670,22 +21670,22 @@
     </row>
     <row r="243" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
+        <v>2126</v>
+      </c>
+      <c r="B243" t="s">
         <v>2127</v>
-      </c>
-      <c r="B243" t="s">
-        <v>2128</v>
       </c>
       <c r="C243">
         <v>860</v>
       </c>
       <c r="D243" t="s">
-        <v>2127</v>
+        <v>2126</v>
       </c>
       <c r="E243" t="s">
+        <v>2128</v>
+      </c>
+      <c r="F243" t="s">
         <v>2129</v>
-      </c>
-      <c r="F243" t="s">
-        <v>2130</v>
       </c>
       <c r="G243">
         <v>447400</v>
@@ -21697,16 +21697,16 @@
         <v>38</v>
       </c>
       <c r="J243" t="s">
+        <v>2130</v>
+      </c>
+      <c r="K243" t="s">
         <v>2131</v>
-      </c>
-      <c r="K243" t="s">
-        <v>2132</v>
       </c>
       <c r="L243" t="s">
         <v>1074</v>
       </c>
       <c r="M243" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="N243" t="s">
         <v>94</v>
@@ -21715,13 +21715,13 @@
         <v>95</v>
       </c>
       <c r="P243" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="Q243">
         <v>1512440</v>
       </c>
       <c r="R243" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="S243" t="s">
         <v>33</v>
@@ -21729,22 +21729,22 @@
     </row>
     <row r="244" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
+        <v>2176</v>
+      </c>
+      <c r="B244" t="s">
         <v>2177</v>
-      </c>
-      <c r="B244" t="s">
-        <v>2178</v>
       </c>
       <c r="C244">
         <v>704</v>
       </c>
       <c r="D244" t="s">
+        <v>2178</v>
+      </c>
+      <c r="E244" t="s">
         <v>2179</v>
       </c>
-      <c r="E244" t="s">
+      <c r="F244" t="s">
         <v>2180</v>
-      </c>
-      <c r="F244" t="s">
-        <v>2181</v>
       </c>
       <c r="G244">
         <v>329560</v>
@@ -21756,16 +21756,16 @@
         <v>38</v>
       </c>
       <c r="J244" t="s">
+        <v>2181</v>
+      </c>
+      <c r="K244" t="s">
         <v>2182</v>
       </c>
-      <c r="K244" t="s">
+      <c r="L244" t="s">
         <v>2183</v>
       </c>
-      <c r="L244" t="s">
+      <c r="M244" t="s">
         <v>2184</v>
-      </c>
-      <c r="M244" t="s">
-        <v>2185</v>
       </c>
       <c r="N244" t="s">
         <v>94</v>
@@ -21774,13 +21774,13 @@
         <v>95</v>
       </c>
       <c r="P244" t="s">
-        <v>2186</v>
+        <v>2185</v>
       </c>
       <c r="Q244">
         <v>1562822</v>
       </c>
       <c r="R244" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="S244" t="s">
         <v>33</v>
@@ -21788,22 +21788,22 @@
     </row>
     <row r="245" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
+        <v>2197</v>
+      </c>
+      <c r="B245" t="s">
         <v>2198</v>
-      </c>
-      <c r="B245" t="s">
-        <v>2199</v>
       </c>
       <c r="C245">
         <v>876</v>
       </c>
       <c r="D245" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="E245" t="s">
+        <v>2199</v>
+      </c>
+      <c r="F245" t="s">
         <v>2200</v>
-      </c>
-      <c r="F245" t="s">
-        <v>2201</v>
       </c>
       <c r="G245">
         <v>274</v>
@@ -21815,7 +21815,7 @@
         <v>125</v>
       </c>
       <c r="J245" t="s">
-        <v>2202</v>
+        <v>2201</v>
       </c>
       <c r="K245" t="s">
         <v>1487</v>
@@ -21824,16 +21824,16 @@
         <v>229</v>
       </c>
       <c r="M245" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="N245" t="s">
         <v>164</v>
       </c>
       <c r="O245" t="s">
+        <v>2203</v>
+      </c>
+      <c r="P245" t="s">
         <v>2204</v>
-      </c>
-      <c r="P245" t="s">
-        <v>2205</v>
       </c>
       <c r="Q245">
         <v>4034749</v>
@@ -22086,19 +22086,19 @@
         <v>1233</v>
       </c>
       <c r="B250" t="s">
-        <v>2230</v>
+        <v>2229</v>
       </c>
       <c r="C250">
         <v>710</v>
       </c>
       <c r="D250" t="s">
+        <v>2230</v>
+      </c>
+      <c r="E250" t="s">
         <v>2231</v>
       </c>
-      <c r="E250" t="s">
+      <c r="F250" t="s">
         <v>2232</v>
-      </c>
-      <c r="F250" t="s">
-        <v>2233</v>
       </c>
       <c r="G250">
         <v>1219912</v>
@@ -22110,16 +22110,16 @@
         <v>45</v>
       </c>
       <c r="J250" t="s">
+        <v>2233</v>
+      </c>
+      <c r="K250" t="s">
         <v>2234</v>
       </c>
-      <c r="K250" t="s">
+      <c r="L250" t="s">
         <v>2235</v>
       </c>
-      <c r="L250" t="s">
+      <c r="M250" t="s">
         <v>2236</v>
-      </c>
-      <c r="M250" t="s">
-        <v>2237</v>
       </c>
       <c r="N250" t="s">
         <v>82</v>
@@ -22128,13 +22128,13 @@
         <v>83</v>
       </c>
       <c r="P250" t="s">
-        <v>2238</v>
+        <v>2237</v>
       </c>
       <c r="Q250">
         <v>953987</v>
       </c>
       <c r="R250" t="s">
-        <v>2239</v>
+        <v>2238</v>
       </c>
       <c r="S250" t="s">
         <v>33</v>
